--- a/data/questions1.xlsx
+++ b/data/questions1.xlsx
@@ -5,21 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973C03B0-A2A9-422B-B932-4CA8B38A0A06}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF87A16-9CD1-4160-9A22-E3762A9EC336}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Picture 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Picture 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Picture 3" sheetId="4" r:id="rId4"/>
-    <sheet name="Picture 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Picture 5" sheetId="6" r:id="rId6"/>
-    <sheet name="Picture 6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -383,19 +377,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -440,19 +427,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -468,385 +454,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3133725" cy="4857750"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Рисунок">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="3133725" cy="4857750"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="3111607" cy="4838702"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Shape 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="3111607" cy="4838702"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3819525" cy="4200525"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpg" title="Изображение">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4219575" cy="4857750"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Рисунок">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="4219575" cy="4857750"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="4202627" cy="4838700"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Shape 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="4202627" cy="4838700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2752725" cy="2447925"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Рисунок">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="2752725" cy="2447925"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="2733675" cy="2428875"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Shape 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="2733675" cy="2428875"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4895850" cy="4857750"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Рисунок">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="4895850" cy="4857750"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="4876621" cy="4838700"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Shape 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="4876621" cy="4838700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4895850" cy="4857750"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Рисунок">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="4895850" cy="4857750"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="4876621" cy="4838700"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="Shape 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="4876621" cy="4838700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1058,1043 +665,902 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3"/>
-    <col min="2" max="2" width="30.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="3" customWidth="1"/>
-    <col min="8" max="14" width="17.7109375" style="3" customWidth="1"/>
-    <col min="15" max="16" width="41.42578125" style="3" customWidth="1"/>
-    <col min="17" max="26" width="33" style="3" customWidth="1"/>
-    <col min="27" max="27" width="22.85546875" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="12.5703125" style="3"/>
+    <col min="1" max="1" width="12.5703125" style="2"/>
+    <col min="2" max="2" width="30.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="2" customWidth="1"/>
+    <col min="8" max="14" width="17.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16" width="41.42578125" style="2" customWidth="1"/>
+    <col min="17" max="26" width="33" style="2" customWidth="1"/>
+    <col min="27" max="27" width="22.85546875" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="150" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="5" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="131.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="5" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="5" t="s">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="75" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="5" t="s">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="5" t="s">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="5" t="s">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="75" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="5" t="s">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="75" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="5" t="s">
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="5" t="s">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="5" t="s">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="150" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="5" t="s">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="5" t="s">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB13" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="5" t="s">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="5" t="s">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>154</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="5" t="s">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="5" t="s">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="5" t="s">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="187.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="5" t="s">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AB19" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>240</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="5" t="s">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="131.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>229.43</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="5" t="s">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="T22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="U22" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="V22" s="4" t="s">
+      <c r="V22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AA22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>